--- a/Labs.xlsx
+++ b/Labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaide\Desktop\Optum Global nov 24\Optum_Global_nov_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563C8C7-5FF2-41BD-A438-5BB5D5EB5239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0679049-F941-47AC-B0A6-9EBAA0EBA0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D47848E-7556-441C-9252-56DCC9486ABE}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{8D47848E-7556-441C-9252-56DCC9486ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>Lab login URL</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>Ujjwal</t>
+  </si>
+  <si>
+    <t>Vijayakumar</t>
   </si>
 </sst>
 </file>
@@ -711,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD781DF7-100F-43E7-9080-485B5DDBB326}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.85" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -887,7 +893,9 @@
       <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="25.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -899,7 +907,9 @@
       <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="25.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
